--- a/projects/test_building/input/Scenario_Renovation_MaximumHeatingIntensity.xlsx
+++ b/projects/test_building/input/Scenario_Renovation_MaximumHeatingIntensity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE236553-A256-D144-9744-75B025DD7612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C48BAA5-F0D9-4040-B99E-3560EE867747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1840" yWindow="-19580" windowWidth="30240" windowHeight="17380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="48">
   <si>
     <t>id_region</t>
   </si>
@@ -178,6 +178,9 @@
   <si>
     <t>kWh/m2</t>
   </si>
+  <si>
+    <t>id_scenario</t>
+  </si>
 </sst>
 </file>
 
@@ -273,9 +276,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EBCBE563-23FB-0B4E-9B6C-4A126A3F1F10}" name="Table1" displayName="Table1" ref="A1:AT182" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:AT182" xr:uid="{EBCBE563-23FB-0B4E-9B6C-4A126A3F1F10}"/>
-  <tableColumns count="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EBCBE563-23FB-0B4E-9B6C-4A126A3F1F10}" name="Table1" displayName="Table1" ref="A1:AU182" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:AU182" xr:uid="{EBCBE563-23FB-0B4E-9B6C-4A126A3F1F10}"/>
+  <tableColumns count="47">
+    <tableColumn id="47" xr3:uid="{1556FEDC-8ADB-414B-8345-B4279C38D1BC}" name="id_scenario"/>
     <tableColumn id="1" xr3:uid="{58E52D05-16EF-704D-95F7-5EFB4B54FEAF}" name="id_region"/>
     <tableColumn id="2" xr3:uid="{A7E98040-5065-3F46-899E-6DA0179FB558}" name="id_sector"/>
     <tableColumn id="3" xr3:uid="{9032A994-BB2B-6145-9C9C-51E69CF4E193}" name="id_subsector"/>
@@ -624,177 +628,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855E48F8-98F6-D04D-BF08-A240F71F4D19}">
-  <dimension ref="A1:AT182"/>
+  <dimension ref="A1:AU182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>61</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>46</v>
       </c>
-      <c r="F2">
-        <v>300</v>
-      </c>
       <c r="G2">
         <v>300</v>
       </c>
@@ -915,26 +923,29 @@
       <c r="AT2">
         <v>300</v>
       </c>
+      <c r="AU2">
+        <v>300</v>
+      </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>61</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>46</v>
       </c>
-      <c r="F3">
-        <v>300</v>
-      </c>
       <c r="G3">
         <v>300</v>
       </c>
@@ -1055,26 +1066,29 @@
       <c r="AT3">
         <v>300</v>
       </c>
+      <c r="AU3">
+        <v>300</v>
+      </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>61</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>46</v>
       </c>
-      <c r="F4">
-        <v>300</v>
-      </c>
       <c r="G4">
         <v>300</v>
       </c>
@@ -1195,26 +1209,29 @@
       <c r="AT4">
         <v>300</v>
       </c>
+      <c r="AU4">
+        <v>300</v>
+      </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>61</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>46</v>
       </c>
-      <c r="F5">
-        <v>300</v>
-      </c>
       <c r="G5">
         <v>300</v>
       </c>
@@ -1335,26 +1352,29 @@
       <c r="AT5">
         <v>300</v>
       </c>
+      <c r="AU5">
+        <v>300</v>
+      </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>61</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>46</v>
       </c>
-      <c r="F6">
-        <v>300</v>
-      </c>
       <c r="G6">
         <v>300</v>
       </c>
@@ -1475,26 +1495,29 @@
       <c r="AT6">
         <v>300</v>
       </c>
+      <c r="AU6">
+        <v>300</v>
+      </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>31</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>46</v>
       </c>
-      <c r="F7">
-        <v>300</v>
-      </c>
       <c r="G7">
         <v>300</v>
       </c>
@@ -1615,26 +1638,29 @@
       <c r="AT7">
         <v>300</v>
       </c>
+      <c r="AU7">
+        <v>300</v>
+      </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>31</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>46</v>
       </c>
-      <c r="F8">
-        <v>300</v>
-      </c>
       <c r="G8">
         <v>300</v>
       </c>
@@ -1755,26 +1781,29 @@
       <c r="AT8">
         <v>300</v>
       </c>
+      <c r="AU8">
+        <v>300</v>
+      </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>31</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>46</v>
       </c>
-      <c r="F9">
-        <v>300</v>
-      </c>
       <c r="G9">
         <v>300</v>
       </c>
@@ -1895,26 +1924,29 @@
       <c r="AT9">
         <v>300</v>
       </c>
+      <c r="AU9">
+        <v>300</v>
+      </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>31</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>46</v>
       </c>
-      <c r="F10">
-        <v>300</v>
-      </c>
       <c r="G10">
         <v>300</v>
       </c>
@@ -2035,26 +2067,29 @@
       <c r="AT10">
         <v>300</v>
       </c>
+      <c r="AU10">
+        <v>300</v>
+      </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>3</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>31</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>46</v>
       </c>
-      <c r="F11">
-        <v>300</v>
-      </c>
       <c r="G11">
         <v>300</v>
       </c>
@@ -2175,26 +2210,29 @@
       <c r="AT11">
         <v>300</v>
       </c>
+      <c r="AU11">
+        <v>300</v>
+      </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>3</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>31</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>11</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>46</v>
       </c>
-      <c r="F12">
-        <v>300</v>
-      </c>
       <c r="G12">
         <v>300</v>
       </c>
@@ -2315,26 +2353,29 @@
       <c r="AT12">
         <v>300</v>
       </c>
+      <c r="AU12">
+        <v>300</v>
+      </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
         <v>9</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>3</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>31</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>12</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>46</v>
       </c>
-      <c r="F13">
-        <v>300</v>
-      </c>
       <c r="G13">
         <v>300</v>
       </c>
@@ -2455,26 +2496,29 @@
       <c r="AT13">
         <v>300</v>
       </c>
+      <c r="AU13">
+        <v>300</v>
+      </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
         <v>9</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>3</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>31</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>13</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>46</v>
       </c>
-      <c r="F14">
-        <v>300</v>
-      </c>
       <c r="G14">
         <v>300</v>
       </c>
@@ -2595,26 +2639,29 @@
       <c r="AT14">
         <v>300</v>
       </c>
+      <c r="AU14">
+        <v>300</v>
+      </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
         <v>9</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>31</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>14</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>46</v>
       </c>
-      <c r="F15">
-        <v>300</v>
-      </c>
       <c r="G15">
         <v>300</v>
       </c>
@@ -2735,26 +2782,29 @@
       <c r="AT15">
         <v>300</v>
       </c>
+      <c r="AU15">
+        <v>300</v>
+      </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
         <v>9</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>3</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>31</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>15</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>46</v>
       </c>
-      <c r="F16">
-        <v>300</v>
-      </c>
       <c r="G16">
         <v>300</v>
       </c>
@@ -2875,26 +2925,29 @@
       <c r="AT16">
         <v>300</v>
       </c>
+      <c r="AU16">
+        <v>300</v>
+      </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
         <v>9</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>3</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>31</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>16</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>46</v>
       </c>
-      <c r="F17">
-        <v>300</v>
-      </c>
       <c r="G17">
         <v>300</v>
       </c>
@@ -3015,26 +3068,29 @@
       <c r="AT17">
         <v>300</v>
       </c>
+      <c r="AU17">
+        <v>300</v>
+      </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
         <v>9</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>3</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>32</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>6</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>46</v>
       </c>
-      <c r="F18">
-        <v>300</v>
-      </c>
       <c r="G18">
         <v>300</v>
       </c>
@@ -3155,26 +3211,29 @@
       <c r="AT18">
         <v>300</v>
       </c>
+      <c r="AU18">
+        <v>300</v>
+      </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
         <v>9</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>3</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>32</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>7</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>46</v>
       </c>
-      <c r="F19">
-        <v>300</v>
-      </c>
       <c r="G19">
         <v>300</v>
       </c>
@@ -3295,26 +3354,29 @@
       <c r="AT19">
         <v>300</v>
       </c>
+      <c r="AU19">
+        <v>300</v>
+      </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
         <v>9</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>3</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>32</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>8</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>46</v>
       </c>
-      <c r="F20">
-        <v>300</v>
-      </c>
       <c r="G20">
         <v>300</v>
       </c>
@@ -3435,26 +3497,29 @@
       <c r="AT20">
         <v>300</v>
       </c>
+      <c r="AU20">
+        <v>300</v>
+      </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
         <v>9</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>3</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>32</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>9</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>46</v>
       </c>
-      <c r="F21">
-        <v>300</v>
-      </c>
       <c r="G21">
         <v>300</v>
       </c>
@@ -3575,26 +3640,29 @@
       <c r="AT21">
         <v>300</v>
       </c>
+      <c r="AU21">
+        <v>300</v>
+      </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
         <v>9</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>3</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>32</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>10</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>46</v>
       </c>
-      <c r="F22">
-        <v>300</v>
-      </c>
       <c r="G22">
         <v>300</v>
       </c>
@@ -3715,26 +3783,29 @@
       <c r="AT22">
         <v>300</v>
       </c>
+      <c r="AU22">
+        <v>300</v>
+      </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
         <v>9</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>3</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>32</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>11</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>46</v>
       </c>
-      <c r="F23">
-        <v>300</v>
-      </c>
       <c r="G23">
         <v>300</v>
       </c>
@@ -3855,26 +3926,29 @@
       <c r="AT23">
         <v>300</v>
       </c>
+      <c r="AU23">
+        <v>300</v>
+      </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
         <v>9</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>3</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>32</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>12</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>46</v>
       </c>
-      <c r="F24">
-        <v>300</v>
-      </c>
       <c r="G24">
         <v>300</v>
       </c>
@@ -3995,26 +4069,29 @@
       <c r="AT24">
         <v>300</v>
       </c>
+      <c r="AU24">
+        <v>300</v>
+      </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
         <v>9</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>3</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>32</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>13</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>46</v>
       </c>
-      <c r="F25">
-        <v>300</v>
-      </c>
       <c r="G25">
         <v>300</v>
       </c>
@@ -4135,26 +4212,29 @@
       <c r="AT25">
         <v>300</v>
       </c>
+      <c r="AU25">
+        <v>300</v>
+      </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
         <v>9</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>3</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>32</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>14</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>46</v>
       </c>
-      <c r="F26">
-        <v>300</v>
-      </c>
       <c r="G26">
         <v>300</v>
       </c>
@@ -4275,26 +4355,29 @@
       <c r="AT26">
         <v>300</v>
       </c>
+      <c r="AU26">
+        <v>300</v>
+      </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
         <v>9</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>3</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>32</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>15</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>46</v>
       </c>
-      <c r="F27">
-        <v>300</v>
-      </c>
       <c r="G27">
         <v>300</v>
       </c>
@@ -4415,26 +4498,29 @@
       <c r="AT27">
         <v>300</v>
       </c>
+      <c r="AU27">
+        <v>300</v>
+      </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
         <v>9</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>3</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>32</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>16</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>46</v>
       </c>
-      <c r="F28">
-        <v>300</v>
-      </c>
       <c r="G28">
         <v>300</v>
       </c>
@@ -4555,26 +4641,29 @@
       <c r="AT28">
         <v>300</v>
       </c>
+      <c r="AU28">
+        <v>300</v>
+      </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
         <v>9</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>3</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>33</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>6</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>46</v>
       </c>
-      <c r="F29">
-        <v>300</v>
-      </c>
       <c r="G29">
         <v>300</v>
       </c>
@@ -4695,26 +4784,29 @@
       <c r="AT29">
         <v>300</v>
       </c>
+      <c r="AU29">
+        <v>300</v>
+      </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
         <v>9</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>3</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>33</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>7</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>46</v>
       </c>
-      <c r="F30">
-        <v>300</v>
-      </c>
       <c r="G30">
         <v>300</v>
       </c>
@@ -4835,26 +4927,29 @@
       <c r="AT30">
         <v>300</v>
       </c>
+      <c r="AU30">
+        <v>300</v>
+      </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
         <v>9</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>3</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>33</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>8</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>46</v>
       </c>
-      <c r="F31">
-        <v>300</v>
-      </c>
       <c r="G31">
         <v>300</v>
       </c>
@@ -4975,26 +5070,29 @@
       <c r="AT31">
         <v>300</v>
       </c>
+      <c r="AU31">
+        <v>300</v>
+      </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
         <v>9</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>3</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>33</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>9</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>46</v>
       </c>
-      <c r="F32">
-        <v>300</v>
-      </c>
       <c r="G32">
         <v>300</v>
       </c>
@@ -5115,26 +5213,29 @@
       <c r="AT32">
         <v>300</v>
       </c>
+      <c r="AU32">
+        <v>300</v>
+      </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
         <v>9</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>3</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>33</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>10</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>46</v>
       </c>
-      <c r="F33">
-        <v>300</v>
-      </c>
       <c r="G33">
         <v>300</v>
       </c>
@@ -5255,26 +5356,29 @@
       <c r="AT33">
         <v>300</v>
       </c>
+      <c r="AU33">
+        <v>300</v>
+      </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
         <v>9</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>3</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>33</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>11</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>46</v>
       </c>
-      <c r="F34">
-        <v>300</v>
-      </c>
       <c r="G34">
         <v>300</v>
       </c>
@@ -5395,26 +5499,29 @@
       <c r="AT34">
         <v>300</v>
       </c>
+      <c r="AU34">
+        <v>300</v>
+      </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
         <v>9</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>3</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>33</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>12</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>46</v>
       </c>
-      <c r="F35">
-        <v>300</v>
-      </c>
       <c r="G35">
         <v>300</v>
       </c>
@@ -5535,26 +5642,29 @@
       <c r="AT35">
         <v>300</v>
       </c>
+      <c r="AU35">
+        <v>300</v>
+      </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
         <v>9</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>3</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>33</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>13</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>46</v>
       </c>
-      <c r="F36">
-        <v>300</v>
-      </c>
       <c r="G36">
         <v>300</v>
       </c>
@@ -5675,26 +5785,29 @@
       <c r="AT36">
         <v>300</v>
       </c>
+      <c r="AU36">
+        <v>300</v>
+      </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
         <v>9</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>3</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>33</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>14</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>46</v>
       </c>
-      <c r="F37">
-        <v>300</v>
-      </c>
       <c r="G37">
         <v>300</v>
       </c>
@@ -5815,26 +5928,29 @@
       <c r="AT37">
         <v>300</v>
       </c>
+      <c r="AU37">
+        <v>300</v>
+      </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
         <v>9</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>3</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>33</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>15</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>46</v>
       </c>
-      <c r="F38">
-        <v>300</v>
-      </c>
       <c r="G38">
         <v>300</v>
       </c>
@@ -5955,26 +6071,29 @@
       <c r="AT38">
         <v>300</v>
       </c>
+      <c r="AU38">
+        <v>300</v>
+      </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
         <v>9</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>3</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>33</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>16</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>46</v>
       </c>
-      <c r="F39">
-        <v>300</v>
-      </c>
       <c r="G39">
         <v>300</v>
       </c>
@@ -6095,26 +6214,29 @@
       <c r="AT39">
         <v>300</v>
       </c>
+      <c r="AU39">
+        <v>300</v>
+      </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
         <v>9</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>3</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>34</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>6</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>46</v>
       </c>
-      <c r="F40">
-        <v>300</v>
-      </c>
       <c r="G40">
         <v>300</v>
       </c>
@@ -6235,26 +6357,29 @@
       <c r="AT40">
         <v>300</v>
       </c>
+      <c r="AU40">
+        <v>300</v>
+      </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
         <v>9</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>3</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>34</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>7</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>46</v>
       </c>
-      <c r="F41">
-        <v>300</v>
-      </c>
       <c r="G41">
         <v>300</v>
       </c>
@@ -6375,26 +6500,29 @@
       <c r="AT41">
         <v>300</v>
       </c>
+      <c r="AU41">
+        <v>300</v>
+      </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
         <v>9</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>3</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>34</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>8</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>46</v>
       </c>
-      <c r="F42">
-        <v>300</v>
-      </c>
       <c r="G42">
         <v>300</v>
       </c>
@@ -6515,26 +6643,29 @@
       <c r="AT42">
         <v>300</v>
       </c>
+      <c r="AU42">
+        <v>300</v>
+      </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
         <v>9</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>3</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>34</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>9</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>46</v>
       </c>
-      <c r="F43">
-        <v>300</v>
-      </c>
       <c r="G43">
         <v>300</v>
       </c>
@@ -6655,26 +6786,29 @@
       <c r="AT43">
         <v>300</v>
       </c>
+      <c r="AU43">
+        <v>300</v>
+      </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
         <v>9</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>3</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>34</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>10</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>46</v>
       </c>
-      <c r="F44">
-        <v>300</v>
-      </c>
       <c r="G44">
         <v>300</v>
       </c>
@@ -6795,26 +6929,29 @@
       <c r="AT44">
         <v>300</v>
       </c>
+      <c r="AU44">
+        <v>300</v>
+      </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
         <v>9</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>3</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>34</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>11</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>46</v>
       </c>
-      <c r="F45">
-        <v>300</v>
-      </c>
       <c r="G45">
         <v>300</v>
       </c>
@@ -6935,26 +7072,29 @@
       <c r="AT45">
         <v>300</v>
       </c>
+      <c r="AU45">
+        <v>300</v>
+      </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
         <v>9</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>3</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>34</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>12</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>46</v>
       </c>
-      <c r="F46">
-        <v>300</v>
-      </c>
       <c r="G46">
         <v>300</v>
       </c>
@@ -7075,26 +7215,29 @@
       <c r="AT46">
         <v>300</v>
       </c>
+      <c r="AU46">
+        <v>300</v>
+      </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
         <v>9</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>3</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>34</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>13</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>46</v>
       </c>
-      <c r="F47">
-        <v>300</v>
-      </c>
       <c r="G47">
         <v>300</v>
       </c>
@@ -7215,26 +7358,29 @@
       <c r="AT47">
         <v>300</v>
       </c>
+      <c r="AU47">
+        <v>300</v>
+      </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
         <v>9</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>3</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>34</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>14</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>46</v>
       </c>
-      <c r="F48">
-        <v>300</v>
-      </c>
       <c r="G48">
         <v>300</v>
       </c>
@@ -7355,26 +7501,29 @@
       <c r="AT48">
         <v>300</v>
       </c>
+      <c r="AU48">
+        <v>300</v>
+      </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
         <v>9</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>3</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>34</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>15</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>46</v>
       </c>
-      <c r="F49">
-        <v>300</v>
-      </c>
       <c r="G49">
         <v>300</v>
       </c>
@@ -7495,26 +7644,29 @@
       <c r="AT49">
         <v>300</v>
       </c>
+      <c r="AU49">
+        <v>300</v>
+      </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
         <v>9</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>3</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>34</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>16</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>46</v>
       </c>
-      <c r="F50">
-        <v>300</v>
-      </c>
       <c r="G50">
         <v>300</v>
       </c>
@@ -7635,26 +7787,29 @@
       <c r="AT50">
         <v>300</v>
       </c>
+      <c r="AU50">
+        <v>300</v>
+      </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
         <v>9</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>3</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>35</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>6</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>46</v>
       </c>
-      <c r="F51">
-        <v>300</v>
-      </c>
       <c r="G51">
         <v>300</v>
       </c>
@@ -7775,26 +7930,29 @@
       <c r="AT51">
         <v>300</v>
       </c>
+      <c r="AU51">
+        <v>300</v>
+      </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
         <v>9</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>3</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>35</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>7</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>46</v>
       </c>
-      <c r="F52">
-        <v>300</v>
-      </c>
       <c r="G52">
         <v>300</v>
       </c>
@@ -7915,26 +8073,29 @@
       <c r="AT52">
         <v>300</v>
       </c>
+      <c r="AU52">
+        <v>300</v>
+      </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
         <v>9</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>3</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>35</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>8</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>46</v>
       </c>
-      <c r="F53">
-        <v>300</v>
-      </c>
       <c r="G53">
         <v>300</v>
       </c>
@@ -8055,26 +8216,29 @@
       <c r="AT53">
         <v>300</v>
       </c>
+      <c r="AU53">
+        <v>300</v>
+      </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
         <v>9</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>3</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>35</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>9</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>46</v>
       </c>
-      <c r="F54">
-        <v>300</v>
-      </c>
       <c r="G54">
         <v>300</v>
       </c>
@@ -8195,26 +8359,29 @@
       <c r="AT54">
         <v>300</v>
       </c>
+      <c r="AU54">
+        <v>300</v>
+      </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
         <v>9</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>3</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>35</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>10</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>46</v>
       </c>
-      <c r="F55">
-        <v>300</v>
-      </c>
       <c r="G55">
         <v>300</v>
       </c>
@@ -8335,26 +8502,29 @@
       <c r="AT55">
         <v>300</v>
       </c>
+      <c r="AU55">
+        <v>300</v>
+      </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
         <v>9</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>3</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>35</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>11</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>46</v>
       </c>
-      <c r="F56">
-        <v>300</v>
-      </c>
       <c r="G56">
         <v>300</v>
       </c>
@@ -8475,26 +8645,29 @@
       <c r="AT56">
         <v>300</v>
       </c>
+      <c r="AU56">
+        <v>300</v>
+      </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
         <v>9</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>3</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>35</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>12</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>46</v>
       </c>
-      <c r="F57">
-        <v>300</v>
-      </c>
       <c r="G57">
         <v>300</v>
       </c>
@@ -8615,26 +8788,29 @@
       <c r="AT57">
         <v>300</v>
       </c>
+      <c r="AU57">
+        <v>300</v>
+      </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
         <v>9</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>3</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>35</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>13</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>46</v>
       </c>
-      <c r="F58">
-        <v>300</v>
-      </c>
       <c r="G58">
         <v>300</v>
       </c>
@@ -8755,26 +8931,29 @@
       <c r="AT58">
         <v>300</v>
       </c>
+      <c r="AU58">
+        <v>300</v>
+      </c>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
         <v>9</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>3</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>35</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>14</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>46</v>
       </c>
-      <c r="F59">
-        <v>300</v>
-      </c>
       <c r="G59">
         <v>300</v>
       </c>
@@ -8895,26 +9074,29 @@
       <c r="AT59">
         <v>300</v>
       </c>
+      <c r="AU59">
+        <v>300</v>
+      </c>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
         <v>9</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>3</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>35</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>15</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>46</v>
       </c>
-      <c r="F60">
-        <v>300</v>
-      </c>
       <c r="G60">
         <v>300</v>
       </c>
@@ -9035,26 +9217,29 @@
       <c r="AT60">
         <v>300</v>
       </c>
+      <c r="AU60">
+        <v>300</v>
+      </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
         <v>9</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>3</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>35</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>16</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>46</v>
       </c>
-      <c r="F61">
-        <v>300</v>
-      </c>
       <c r="G61">
         <v>300</v>
       </c>
@@ -9175,26 +9360,29 @@
       <c r="AT61">
         <v>300</v>
       </c>
+      <c r="AU61">
+        <v>300</v>
+      </c>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
         <v>9</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>3</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>36</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>6</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>46</v>
       </c>
-      <c r="F62">
-        <v>300</v>
-      </c>
       <c r="G62">
         <v>300</v>
       </c>
@@ -9315,26 +9503,29 @@
       <c r="AT62">
         <v>300</v>
       </c>
+      <c r="AU62">
+        <v>300</v>
+      </c>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
         <v>9</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>3</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>36</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>7</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>46</v>
       </c>
-      <c r="F63">
-        <v>300</v>
-      </c>
       <c r="G63">
         <v>300</v>
       </c>
@@ -9455,26 +9646,29 @@
       <c r="AT63">
         <v>300</v>
       </c>
+      <c r="AU63">
+        <v>300</v>
+      </c>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
         <v>9</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>3</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>36</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>8</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>46</v>
       </c>
-      <c r="F64">
-        <v>300</v>
-      </c>
       <c r="G64">
         <v>300</v>
       </c>
@@ -9595,26 +9789,29 @@
       <c r="AT64">
         <v>300</v>
       </c>
+      <c r="AU64">
+        <v>300</v>
+      </c>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
         <v>9</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>3</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>36</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>9</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>46</v>
       </c>
-      <c r="F65">
-        <v>300</v>
-      </c>
       <c r="G65">
         <v>300</v>
       </c>
@@ -9735,26 +9932,29 @@
       <c r="AT65">
         <v>300</v>
       </c>
+      <c r="AU65">
+        <v>300</v>
+      </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
         <v>9</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>3</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>36</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>10</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>46</v>
       </c>
-      <c r="F66">
-        <v>300</v>
-      </c>
       <c r="G66">
         <v>300</v>
       </c>
@@ -9875,26 +10075,29 @@
       <c r="AT66">
         <v>300</v>
       </c>
+      <c r="AU66">
+        <v>300</v>
+      </c>
     </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
         <v>9</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>3</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>36</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>11</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>46</v>
       </c>
-      <c r="F67">
-        <v>300</v>
-      </c>
       <c r="G67">
         <v>300</v>
       </c>
@@ -10015,26 +10218,29 @@
       <c r="AT67">
         <v>300</v>
       </c>
+      <c r="AU67">
+        <v>300</v>
+      </c>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
         <v>9</v>
       </c>
-      <c r="B68">
+      <c r="C68">
         <v>3</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>36</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>12</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>46</v>
       </c>
-      <c r="F68">
-        <v>300</v>
-      </c>
       <c r="G68">
         <v>300</v>
       </c>
@@ -10155,26 +10361,29 @@
       <c r="AT68">
         <v>300</v>
       </c>
+      <c r="AU68">
+        <v>300</v>
+      </c>
     </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
         <v>9</v>
       </c>
-      <c r="B69">
+      <c r="C69">
         <v>3</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>36</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>13</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>46</v>
       </c>
-      <c r="F69">
-        <v>300</v>
-      </c>
       <c r="G69">
         <v>300</v>
       </c>
@@ -10295,26 +10504,29 @@
       <c r="AT69">
         <v>300</v>
       </c>
+      <c r="AU69">
+        <v>300</v>
+      </c>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
         <v>9</v>
       </c>
-      <c r="B70">
+      <c r="C70">
         <v>3</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>36</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>14</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>46</v>
       </c>
-      <c r="F70">
-        <v>300</v>
-      </c>
       <c r="G70">
         <v>300</v>
       </c>
@@ -10435,26 +10647,29 @@
       <c r="AT70">
         <v>300</v>
       </c>
+      <c r="AU70">
+        <v>300</v>
+      </c>
     </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
         <v>9</v>
       </c>
-      <c r="B71">
+      <c r="C71">
         <v>3</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>36</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>15</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>46</v>
       </c>
-      <c r="F71">
-        <v>300</v>
-      </c>
       <c r="G71">
         <v>300</v>
       </c>
@@ -10575,26 +10790,29 @@
       <c r="AT71">
         <v>300</v>
       </c>
+      <c r="AU71">
+        <v>300</v>
+      </c>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
         <v>9</v>
       </c>
-      <c r="B72">
+      <c r="C72">
         <v>3</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>36</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>16</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>46</v>
       </c>
-      <c r="F72">
-        <v>300</v>
-      </c>
       <c r="G72">
         <v>300</v>
       </c>
@@ -10715,26 +10933,29 @@
       <c r="AT72">
         <v>300</v>
       </c>
+      <c r="AU72">
+        <v>300</v>
+      </c>
     </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
         <v>9</v>
       </c>
-      <c r="B73">
+      <c r="C73">
         <v>3</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>37</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>6</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>46</v>
       </c>
-      <c r="F73">
-        <v>300</v>
-      </c>
       <c r="G73">
         <v>300</v>
       </c>
@@ -10855,26 +11076,29 @@
       <c r="AT73">
         <v>300</v>
       </c>
+      <c r="AU73">
+        <v>300</v>
+      </c>
     </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
         <v>9</v>
       </c>
-      <c r="B74">
+      <c r="C74">
         <v>3</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>37</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>7</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>46</v>
       </c>
-      <c r="F74">
-        <v>300</v>
-      </c>
       <c r="G74">
         <v>300</v>
       </c>
@@ -10995,26 +11219,29 @@
       <c r="AT74">
         <v>300</v>
       </c>
+      <c r="AU74">
+        <v>300</v>
+      </c>
     </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
         <v>9</v>
       </c>
-      <c r="B75">
+      <c r="C75">
         <v>3</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>37</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>8</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>46</v>
       </c>
-      <c r="F75">
-        <v>300</v>
-      </c>
       <c r="G75">
         <v>300</v>
       </c>
@@ -11135,26 +11362,29 @@
       <c r="AT75">
         <v>300</v>
       </c>
+      <c r="AU75">
+        <v>300</v>
+      </c>
     </row>
-    <row r="76" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
         <v>9</v>
       </c>
-      <c r="B76">
+      <c r="C76">
         <v>3</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>37</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>9</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>46</v>
       </c>
-      <c r="F76">
-        <v>300</v>
-      </c>
       <c r="G76">
         <v>300</v>
       </c>
@@ -11275,26 +11505,29 @@
       <c r="AT76">
         <v>300</v>
       </c>
+      <c r="AU76">
+        <v>300</v>
+      </c>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
         <v>9</v>
       </c>
-      <c r="B77">
+      <c r="C77">
         <v>3</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>37</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>10</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>46</v>
       </c>
-      <c r="F77">
-        <v>300</v>
-      </c>
       <c r="G77">
         <v>300</v>
       </c>
@@ -11415,26 +11648,29 @@
       <c r="AT77">
         <v>300</v>
       </c>
+      <c r="AU77">
+        <v>300</v>
+      </c>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
         <v>9</v>
       </c>
-      <c r="B78">
+      <c r="C78">
         <v>3</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>37</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>11</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>46</v>
       </c>
-      <c r="F78">
-        <v>300</v>
-      </c>
       <c r="G78">
         <v>300</v>
       </c>
@@ -11555,26 +11791,29 @@
       <c r="AT78">
         <v>300</v>
       </c>
+      <c r="AU78">
+        <v>300</v>
+      </c>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79">
         <v>9</v>
       </c>
-      <c r="B79">
+      <c r="C79">
         <v>3</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>37</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>12</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>46</v>
       </c>
-      <c r="F79">
-        <v>300</v>
-      </c>
       <c r="G79">
         <v>300</v>
       </c>
@@ -11695,26 +11934,29 @@
       <c r="AT79">
         <v>300</v>
       </c>
+      <c r="AU79">
+        <v>300</v>
+      </c>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
         <v>9</v>
       </c>
-      <c r="B80">
+      <c r="C80">
         <v>3</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>37</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>13</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>46</v>
       </c>
-      <c r="F80">
-        <v>300</v>
-      </c>
       <c r="G80">
         <v>300</v>
       </c>
@@ -11835,26 +12077,29 @@
       <c r="AT80">
         <v>300</v>
       </c>
+      <c r="AU80">
+        <v>300</v>
+      </c>
     </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
         <v>9</v>
       </c>
-      <c r="B81">
+      <c r="C81">
         <v>3</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>37</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>14</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>46</v>
       </c>
-      <c r="F81">
-        <v>300</v>
-      </c>
       <c r="G81">
         <v>300</v>
       </c>
@@ -11975,26 +12220,29 @@
       <c r="AT81">
         <v>300</v>
       </c>
+      <c r="AU81">
+        <v>300</v>
+      </c>
     </row>
-    <row r="82" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
         <v>9</v>
       </c>
-      <c r="B82">
+      <c r="C82">
         <v>3</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>37</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>15</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>46</v>
       </c>
-      <c r="F82">
-        <v>300</v>
-      </c>
       <c r="G82">
         <v>300</v>
       </c>
@@ -12115,26 +12363,29 @@
       <c r="AT82">
         <v>300</v>
       </c>
+      <c r="AU82">
+        <v>300</v>
+      </c>
     </row>
-    <row r="83" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83">
         <v>9</v>
       </c>
-      <c r="B83">
+      <c r="C83">
         <v>3</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>37</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>16</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>46</v>
       </c>
-      <c r="F83">
-        <v>300</v>
-      </c>
       <c r="G83">
         <v>300</v>
       </c>
@@ -12255,26 +12506,29 @@
       <c r="AT83">
         <v>300</v>
       </c>
+      <c r="AU83">
+        <v>300</v>
+      </c>
     </row>
-    <row r="84" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84">
         <v>9</v>
       </c>
-      <c r="B84">
+      <c r="C84">
         <v>3</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>38</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>6</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>46</v>
       </c>
-      <c r="F84">
-        <v>300</v>
-      </c>
       <c r="G84">
         <v>300</v>
       </c>
@@ -12395,26 +12649,29 @@
       <c r="AT84">
         <v>300</v>
       </c>
+      <c r="AU84">
+        <v>300</v>
+      </c>
     </row>
-    <row r="85" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85">
         <v>9</v>
       </c>
-      <c r="B85">
+      <c r="C85">
         <v>3</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>38</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>7</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>46</v>
       </c>
-      <c r="F85">
-        <v>300</v>
-      </c>
       <c r="G85">
         <v>300</v>
       </c>
@@ -12535,26 +12792,29 @@
       <c r="AT85">
         <v>300</v>
       </c>
+      <c r="AU85">
+        <v>300</v>
+      </c>
     </row>
-    <row r="86" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
         <v>9</v>
       </c>
-      <c r="B86">
+      <c r="C86">
         <v>3</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>38</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>8</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>46</v>
       </c>
-      <c r="F86">
-        <v>300</v>
-      </c>
       <c r="G86">
         <v>300</v>
       </c>
@@ -12675,26 +12935,29 @@
       <c r="AT86">
         <v>300</v>
       </c>
+      <c r="AU86">
+        <v>300</v>
+      </c>
     </row>
-    <row r="87" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87">
         <v>9</v>
       </c>
-      <c r="B87">
+      <c r="C87">
         <v>3</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>38</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>9</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>46</v>
       </c>
-      <c r="F87">
-        <v>300</v>
-      </c>
       <c r="G87">
         <v>300</v>
       </c>
@@ -12815,26 +13078,29 @@
       <c r="AT87">
         <v>300</v>
       </c>
+      <c r="AU87">
+        <v>300</v>
+      </c>
     </row>
-    <row r="88" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88">
         <v>9</v>
       </c>
-      <c r="B88">
+      <c r="C88">
         <v>3</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>38</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>10</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>46</v>
       </c>
-      <c r="F88">
-        <v>300</v>
-      </c>
       <c r="G88">
         <v>300</v>
       </c>
@@ -12955,26 +13221,29 @@
       <c r="AT88">
         <v>300</v>
       </c>
+      <c r="AU88">
+        <v>300</v>
+      </c>
     </row>
-    <row r="89" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89">
         <v>9</v>
       </c>
-      <c r="B89">
+      <c r="C89">
         <v>3</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>38</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>11</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>46</v>
       </c>
-      <c r="F89">
-        <v>300</v>
-      </c>
       <c r="G89">
         <v>300</v>
       </c>
@@ -13095,26 +13364,29 @@
       <c r="AT89">
         <v>300</v>
       </c>
+      <c r="AU89">
+        <v>300</v>
+      </c>
     </row>
-    <row r="90" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
         <v>9</v>
       </c>
-      <c r="B90">
+      <c r="C90">
         <v>3</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>38</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>12</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>46</v>
       </c>
-      <c r="F90">
-        <v>300</v>
-      </c>
       <c r="G90">
         <v>300</v>
       </c>
@@ -13235,26 +13507,29 @@
       <c r="AT90">
         <v>300</v>
       </c>
+      <c r="AU90">
+        <v>300</v>
+      </c>
     </row>
-    <row r="91" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91">
         <v>9</v>
       </c>
-      <c r="B91">
+      <c r="C91">
         <v>3</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>38</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>13</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>46</v>
       </c>
-      <c r="F91">
-        <v>300</v>
-      </c>
       <c r="G91">
         <v>300</v>
       </c>
@@ -13375,26 +13650,29 @@
       <c r="AT91">
         <v>300</v>
       </c>
+      <c r="AU91">
+        <v>300</v>
+      </c>
     </row>
-    <row r="92" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
         <v>9</v>
       </c>
-      <c r="B92">
+      <c r="C92">
         <v>3</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>38</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>14</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>46</v>
       </c>
-      <c r="F92">
-        <v>300</v>
-      </c>
       <c r="G92">
         <v>300</v>
       </c>
@@ -13515,26 +13793,29 @@
       <c r="AT92">
         <v>300</v>
       </c>
+      <c r="AU92">
+        <v>300</v>
+      </c>
     </row>
-    <row r="93" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93">
         <v>9</v>
       </c>
-      <c r="B93">
+      <c r="C93">
         <v>3</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>38</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>15</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>46</v>
       </c>
-      <c r="F93">
-        <v>300</v>
-      </c>
       <c r="G93">
         <v>300</v>
       </c>
@@ -13655,26 +13936,29 @@
       <c r="AT93">
         <v>300</v>
       </c>
+      <c r="AU93">
+        <v>300</v>
+      </c>
     </row>
-    <row r="94" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94">
         <v>9</v>
       </c>
-      <c r="B94">
+      <c r="C94">
         <v>3</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>38</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>16</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>46</v>
       </c>
-      <c r="F94">
-        <v>300</v>
-      </c>
       <c r="G94">
         <v>300</v>
       </c>
@@ -13795,26 +14079,29 @@
       <c r="AT94">
         <v>300</v>
       </c>
+      <c r="AU94">
+        <v>300</v>
+      </c>
     </row>
-    <row r="95" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95">
         <v>9</v>
       </c>
-      <c r="B95">
+      <c r="C95">
         <v>3</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>39</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>6</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>46</v>
       </c>
-      <c r="F95">
-        <v>300</v>
-      </c>
       <c r="G95">
         <v>300</v>
       </c>
@@ -13935,26 +14222,29 @@
       <c r="AT95">
         <v>300</v>
       </c>
+      <c r="AU95">
+        <v>300</v>
+      </c>
     </row>
-    <row r="96" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96">
         <v>9</v>
       </c>
-      <c r="B96">
+      <c r="C96">
         <v>3</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>39</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>7</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>46</v>
       </c>
-      <c r="F96">
-        <v>300</v>
-      </c>
       <c r="G96">
         <v>300</v>
       </c>
@@ -14075,26 +14365,29 @@
       <c r="AT96">
         <v>300</v>
       </c>
+      <c r="AU96">
+        <v>300</v>
+      </c>
     </row>
-    <row r="97" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97">
         <v>9</v>
       </c>
-      <c r="B97">
+      <c r="C97">
         <v>3</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>39</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>8</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>46</v>
       </c>
-      <c r="F97">
-        <v>300</v>
-      </c>
       <c r="G97">
         <v>300</v>
       </c>
@@ -14215,26 +14508,29 @@
       <c r="AT97">
         <v>300</v>
       </c>
+      <c r="AU97">
+        <v>300</v>
+      </c>
     </row>
-    <row r="98" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98">
         <v>9</v>
       </c>
-      <c r="B98">
+      <c r="C98">
         <v>3</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>39</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>9</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>46</v>
       </c>
-      <c r="F98">
-        <v>300</v>
-      </c>
       <c r="G98">
         <v>300</v>
       </c>
@@ -14355,26 +14651,29 @@
       <c r="AT98">
         <v>300</v>
       </c>
+      <c r="AU98">
+        <v>300</v>
+      </c>
     </row>
-    <row r="99" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99">
         <v>9</v>
       </c>
-      <c r="B99">
+      <c r="C99">
         <v>3</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>39</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>10</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>46</v>
       </c>
-      <c r="F99">
-        <v>300</v>
-      </c>
       <c r="G99">
         <v>300</v>
       </c>
@@ -14495,26 +14794,29 @@
       <c r="AT99">
         <v>300</v>
       </c>
+      <c r="AU99">
+        <v>300</v>
+      </c>
     </row>
-    <row r="100" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100">
         <v>9</v>
       </c>
-      <c r="B100">
+      <c r="C100">
         <v>3</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>39</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>11</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>46</v>
       </c>
-      <c r="F100">
-        <v>300</v>
-      </c>
       <c r="G100">
         <v>300</v>
       </c>
@@ -14635,26 +14937,29 @@
       <c r="AT100">
         <v>300</v>
       </c>
+      <c r="AU100">
+        <v>300</v>
+      </c>
     </row>
-    <row r="101" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101">
         <v>9</v>
       </c>
-      <c r="B101">
+      <c r="C101">
         <v>3</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>39</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>12</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>46</v>
       </c>
-      <c r="F101">
-        <v>300</v>
-      </c>
       <c r="G101">
         <v>300</v>
       </c>
@@ -14775,26 +15080,29 @@
       <c r="AT101">
         <v>300</v>
       </c>
+      <c r="AU101">
+        <v>300</v>
+      </c>
     </row>
-    <row r="102" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102">
         <v>9</v>
       </c>
-      <c r="B102">
+      <c r="C102">
         <v>3</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>39</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <v>13</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>46</v>
       </c>
-      <c r="F102">
-        <v>300</v>
-      </c>
       <c r="G102">
         <v>300</v>
       </c>
@@ -14915,26 +15223,29 @@
       <c r="AT102">
         <v>300</v>
       </c>
+      <c r="AU102">
+        <v>300</v>
+      </c>
     </row>
-    <row r="103" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103">
         <v>9</v>
       </c>
-      <c r="B103">
+      <c r="C103">
         <v>3</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>39</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>14</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>46</v>
       </c>
-      <c r="F103">
-        <v>300</v>
-      </c>
       <c r="G103">
         <v>300</v>
       </c>
@@ -15055,26 +15366,29 @@
       <c r="AT103">
         <v>300</v>
       </c>
+      <c r="AU103">
+        <v>300</v>
+      </c>
     </row>
-    <row r="104" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104">
         <v>9</v>
       </c>
-      <c r="B104">
+      <c r="C104">
         <v>3</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>39</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>15</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>46</v>
       </c>
-      <c r="F104">
-        <v>300</v>
-      </c>
       <c r="G104">
         <v>300</v>
       </c>
@@ -15195,26 +15509,29 @@
       <c r="AT104">
         <v>300</v>
       </c>
+      <c r="AU104">
+        <v>300</v>
+      </c>
     </row>
-    <row r="105" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105">
         <v>9</v>
       </c>
-      <c r="B105">
+      <c r="C105">
         <v>3</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>39</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <v>16</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>46</v>
       </c>
-      <c r="F105">
-        <v>300</v>
-      </c>
       <c r="G105">
         <v>300</v>
       </c>
@@ -15335,26 +15652,29 @@
       <c r="AT105">
         <v>300</v>
       </c>
+      <c r="AU105">
+        <v>300</v>
+      </c>
     </row>
-    <row r="106" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106">
         <v>9</v>
       </c>
-      <c r="B106">
+      <c r="C106">
         <v>3</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>310</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <v>6</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>46</v>
       </c>
-      <c r="F106">
-        <v>300</v>
-      </c>
       <c r="G106">
         <v>300</v>
       </c>
@@ -15475,26 +15795,29 @@
       <c r="AT106">
         <v>300</v>
       </c>
+      <c r="AU106">
+        <v>300</v>
+      </c>
     </row>
-    <row r="107" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107">
         <v>9</v>
       </c>
-      <c r="B107">
+      <c r="C107">
         <v>3</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>310</v>
       </c>
-      <c r="D107">
+      <c r="E107">
         <v>7</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>46</v>
       </c>
-      <c r="F107">
-        <v>300</v>
-      </c>
       <c r="G107">
         <v>300</v>
       </c>
@@ -15615,26 +15938,29 @@
       <c r="AT107">
         <v>300</v>
       </c>
+      <c r="AU107">
+        <v>300</v>
+      </c>
     </row>
-    <row r="108" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108">
         <v>9</v>
       </c>
-      <c r="B108">
+      <c r="C108">
         <v>3</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>310</v>
       </c>
-      <c r="D108">
+      <c r="E108">
         <v>8</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>46</v>
       </c>
-      <c r="F108">
-        <v>300</v>
-      </c>
       <c r="G108">
         <v>300</v>
       </c>
@@ -15755,26 +16081,29 @@
       <c r="AT108">
         <v>300</v>
       </c>
+      <c r="AU108">
+        <v>300</v>
+      </c>
     </row>
-    <row r="109" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109">
         <v>9</v>
       </c>
-      <c r="B109">
+      <c r="C109">
         <v>3</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>310</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <v>9</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>46</v>
       </c>
-      <c r="F109">
-        <v>300</v>
-      </c>
       <c r="G109">
         <v>300</v>
       </c>
@@ -15895,26 +16224,29 @@
       <c r="AT109">
         <v>300</v>
       </c>
+      <c r="AU109">
+        <v>300</v>
+      </c>
     </row>
-    <row r="110" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110">
         <v>9</v>
       </c>
-      <c r="B110">
+      <c r="C110">
         <v>3</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>310</v>
       </c>
-      <c r="D110">
+      <c r="E110">
         <v>10</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>46</v>
       </c>
-      <c r="F110">
-        <v>300</v>
-      </c>
       <c r="G110">
         <v>300</v>
       </c>
@@ -16035,26 +16367,29 @@
       <c r="AT110">
         <v>300</v>
       </c>
+      <c r="AU110">
+        <v>300</v>
+      </c>
     </row>
-    <row r="111" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111">
         <v>9</v>
       </c>
-      <c r="B111">
+      <c r="C111">
         <v>3</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>310</v>
       </c>
-      <c r="D111">
+      <c r="E111">
         <v>11</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>46</v>
       </c>
-      <c r="F111">
-        <v>300</v>
-      </c>
       <c r="G111">
         <v>300</v>
       </c>
@@ -16175,26 +16510,29 @@
       <c r="AT111">
         <v>300</v>
       </c>
+      <c r="AU111">
+        <v>300</v>
+      </c>
     </row>
-    <row r="112" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112">
         <v>9</v>
       </c>
-      <c r="B112">
+      <c r="C112">
         <v>3</v>
       </c>
-      <c r="C112">
+      <c r="D112">
         <v>310</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <v>12</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>46</v>
       </c>
-      <c r="F112">
-        <v>300</v>
-      </c>
       <c r="G112">
         <v>300</v>
       </c>
@@ -16315,26 +16653,29 @@
       <c r="AT112">
         <v>300</v>
       </c>
+      <c r="AU112">
+        <v>300</v>
+      </c>
     </row>
-    <row r="113" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113">
         <v>9</v>
       </c>
-      <c r="B113">
+      <c r="C113">
         <v>3</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <v>310</v>
       </c>
-      <c r="D113">
+      <c r="E113">
         <v>13</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>46</v>
       </c>
-      <c r="F113">
-        <v>300</v>
-      </c>
       <c r="G113">
         <v>300</v>
       </c>
@@ -16455,26 +16796,29 @@
       <c r="AT113">
         <v>300</v>
       </c>
+      <c r="AU113">
+        <v>300</v>
+      </c>
     </row>
-    <row r="114" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114">
         <v>9</v>
       </c>
-      <c r="B114">
+      <c r="C114">
         <v>3</v>
       </c>
-      <c r="C114">
+      <c r="D114">
         <v>310</v>
       </c>
-      <c r="D114">
+      <c r="E114">
         <v>14</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>46</v>
       </c>
-      <c r="F114">
-        <v>300</v>
-      </c>
       <c r="G114">
         <v>300</v>
       </c>
@@ -16595,26 +16939,29 @@
       <c r="AT114">
         <v>300</v>
       </c>
+      <c r="AU114">
+        <v>300</v>
+      </c>
     </row>
-    <row r="115" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115">
         <v>9</v>
       </c>
-      <c r="B115">
+      <c r="C115">
         <v>3</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>310</v>
       </c>
-      <c r="D115">
+      <c r="E115">
         <v>15</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>46</v>
       </c>
-      <c r="F115">
-        <v>300</v>
-      </c>
       <c r="G115">
         <v>300</v>
       </c>
@@ -16735,26 +17082,29 @@
       <c r="AT115">
         <v>300</v>
       </c>
+      <c r="AU115">
+        <v>300</v>
+      </c>
     </row>
-    <row r="116" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116">
         <v>9</v>
       </c>
-      <c r="B116">
+      <c r="C116">
         <v>3</v>
       </c>
-      <c r="C116">
+      <c r="D116">
         <v>310</v>
       </c>
-      <c r="D116">
+      <c r="E116">
         <v>16</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>46</v>
       </c>
-      <c r="F116">
-        <v>300</v>
-      </c>
       <c r="G116">
         <v>300</v>
       </c>
@@ -16875,26 +17225,29 @@
       <c r="AT116">
         <v>300</v>
       </c>
+      <c r="AU116">
+        <v>300</v>
+      </c>
     </row>
-    <row r="117" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117">
         <v>9</v>
       </c>
-      <c r="B117">
+      <c r="C117">
         <v>3</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <v>311</v>
       </c>
-      <c r="D117">
+      <c r="E117">
         <v>6</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>46</v>
       </c>
-      <c r="F117">
-        <v>300</v>
-      </c>
       <c r="G117">
         <v>300</v>
       </c>
@@ -17015,26 +17368,29 @@
       <c r="AT117">
         <v>300</v>
       </c>
+      <c r="AU117">
+        <v>300</v>
+      </c>
     </row>
-    <row r="118" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118">
         <v>9</v>
       </c>
-      <c r="B118">
+      <c r="C118">
         <v>3</v>
       </c>
-      <c r="C118">
+      <c r="D118">
         <v>311</v>
       </c>
-      <c r="D118">
+      <c r="E118">
         <v>7</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>46</v>
       </c>
-      <c r="F118">
-        <v>300</v>
-      </c>
       <c r="G118">
         <v>300</v>
       </c>
@@ -17155,26 +17511,29 @@
       <c r="AT118">
         <v>300</v>
       </c>
+      <c r="AU118">
+        <v>300</v>
+      </c>
     </row>
-    <row r="119" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119">
         <v>9</v>
       </c>
-      <c r="B119">
+      <c r="C119">
         <v>3</v>
       </c>
-      <c r="C119">
+      <c r="D119">
         <v>311</v>
       </c>
-      <c r="D119">
+      <c r="E119">
         <v>8</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>46</v>
       </c>
-      <c r="F119">
-        <v>300</v>
-      </c>
       <c r="G119">
         <v>300</v>
       </c>
@@ -17295,26 +17654,29 @@
       <c r="AT119">
         <v>300</v>
       </c>
+      <c r="AU119">
+        <v>300</v>
+      </c>
     </row>
-    <row r="120" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120">
         <v>9</v>
       </c>
-      <c r="B120">
+      <c r="C120">
         <v>3</v>
       </c>
-      <c r="C120">
+      <c r="D120">
         <v>311</v>
       </c>
-      <c r="D120">
+      <c r="E120">
         <v>9</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>46</v>
       </c>
-      <c r="F120">
-        <v>300</v>
-      </c>
       <c r="G120">
         <v>300</v>
       </c>
@@ -17435,26 +17797,29 @@
       <c r="AT120">
         <v>300</v>
       </c>
+      <c r="AU120">
+        <v>300</v>
+      </c>
     </row>
-    <row r="121" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121">
         <v>9</v>
       </c>
-      <c r="B121">
+      <c r="C121">
         <v>3</v>
       </c>
-      <c r="C121">
+      <c r="D121">
         <v>311</v>
       </c>
-      <c r="D121">
+      <c r="E121">
         <v>10</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>46</v>
       </c>
-      <c r="F121">
-        <v>300</v>
-      </c>
       <c r="G121">
         <v>300</v>
       </c>
@@ -17575,26 +17940,29 @@
       <c r="AT121">
         <v>300</v>
       </c>
+      <c r="AU121">
+        <v>300</v>
+      </c>
     </row>
-    <row r="122" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122">
         <v>9</v>
       </c>
-      <c r="B122">
+      <c r="C122">
         <v>3</v>
       </c>
-      <c r="C122">
+      <c r="D122">
         <v>311</v>
       </c>
-      <c r="D122">
+      <c r="E122">
         <v>11</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>46</v>
       </c>
-      <c r="F122">
-        <v>300</v>
-      </c>
       <c r="G122">
         <v>300</v>
       </c>
@@ -17715,26 +18083,29 @@
       <c r="AT122">
         <v>300</v>
       </c>
+      <c r="AU122">
+        <v>300</v>
+      </c>
     </row>
-    <row r="123" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123">
         <v>9</v>
       </c>
-      <c r="B123">
+      <c r="C123">
         <v>3</v>
       </c>
-      <c r="C123">
+      <c r="D123">
         <v>311</v>
       </c>
-      <c r="D123">
+      <c r="E123">
         <v>12</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>46</v>
       </c>
-      <c r="F123">
-        <v>300</v>
-      </c>
       <c r="G123">
         <v>300</v>
       </c>
@@ -17855,26 +18226,29 @@
       <c r="AT123">
         <v>300</v>
       </c>
+      <c r="AU123">
+        <v>300</v>
+      </c>
     </row>
-    <row r="124" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124">
         <v>9</v>
       </c>
-      <c r="B124">
+      <c r="C124">
         <v>3</v>
       </c>
-      <c r="C124">
+      <c r="D124">
         <v>311</v>
       </c>
-      <c r="D124">
+      <c r="E124">
         <v>13</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>46</v>
       </c>
-      <c r="F124">
-        <v>300</v>
-      </c>
       <c r="G124">
         <v>300</v>
       </c>
@@ -17995,26 +18369,29 @@
       <c r="AT124">
         <v>300</v>
       </c>
+      <c r="AU124">
+        <v>300</v>
+      </c>
     </row>
-    <row r="125" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125">
         <v>9</v>
       </c>
-      <c r="B125">
+      <c r="C125">
         <v>3</v>
       </c>
-      <c r="C125">
+      <c r="D125">
         <v>311</v>
       </c>
-      <c r="D125">
+      <c r="E125">
         <v>14</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
         <v>46</v>
       </c>
-      <c r="F125">
-        <v>300</v>
-      </c>
       <c r="G125">
         <v>300</v>
       </c>
@@ -18135,26 +18512,29 @@
       <c r="AT125">
         <v>300</v>
       </c>
+      <c r="AU125">
+        <v>300</v>
+      </c>
     </row>
-    <row r="126" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126">
         <v>9</v>
       </c>
-      <c r="B126">
+      <c r="C126">
         <v>3</v>
       </c>
-      <c r="C126">
+      <c r="D126">
         <v>311</v>
       </c>
-      <c r="D126">
+      <c r="E126">
         <v>15</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
         <v>46</v>
       </c>
-      <c r="F126">
-        <v>300</v>
-      </c>
       <c r="G126">
         <v>300</v>
       </c>
@@ -18275,26 +18655,29 @@
       <c r="AT126">
         <v>300</v>
       </c>
+      <c r="AU126">
+        <v>300</v>
+      </c>
     </row>
-    <row r="127" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="B127">
         <v>9</v>
       </c>
-      <c r="B127">
+      <c r="C127">
         <v>3</v>
       </c>
-      <c r="C127">
+      <c r="D127">
         <v>311</v>
       </c>
-      <c r="D127">
+      <c r="E127">
         <v>16</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>46</v>
       </c>
-      <c r="F127">
-        <v>300</v>
-      </c>
       <c r="G127">
         <v>300</v>
       </c>
@@ -18415,26 +18798,29 @@
       <c r="AT127">
         <v>300</v>
       </c>
+      <c r="AU127">
+        <v>300</v>
+      </c>
     </row>
-    <row r="128" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128">
         <v>9</v>
       </c>
-      <c r="B128">
+      <c r="C128">
         <v>3</v>
       </c>
-      <c r="C128">
+      <c r="D128">
         <v>312</v>
       </c>
-      <c r="D128">
+      <c r="E128">
         <v>6</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>46</v>
       </c>
-      <c r="F128">
-        <v>300</v>
-      </c>
       <c r="G128">
         <v>300</v>
       </c>
@@ -18555,26 +18941,29 @@
       <c r="AT128">
         <v>300</v>
       </c>
+      <c r="AU128">
+        <v>300</v>
+      </c>
     </row>
-    <row r="129" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="B129">
         <v>9</v>
       </c>
-      <c r="B129">
+      <c r="C129">
         <v>3</v>
       </c>
-      <c r="C129">
+      <c r="D129">
         <v>312</v>
       </c>
-      <c r="D129">
+      <c r="E129">
         <v>7</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
         <v>46</v>
       </c>
-      <c r="F129">
-        <v>300</v>
-      </c>
       <c r="G129">
         <v>300</v>
       </c>
@@ -18695,26 +19084,29 @@
       <c r="AT129">
         <v>300</v>
       </c>
+      <c r="AU129">
+        <v>300</v>
+      </c>
     </row>
-    <row r="130" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130">
         <v>9</v>
       </c>
-      <c r="B130">
+      <c r="C130">
         <v>3</v>
       </c>
-      <c r="C130">
+      <c r="D130">
         <v>312</v>
       </c>
-      <c r="D130">
+      <c r="E130">
         <v>8</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
         <v>46</v>
       </c>
-      <c r="F130">
-        <v>300</v>
-      </c>
       <c r="G130">
         <v>300</v>
       </c>
@@ -18835,26 +19227,29 @@
       <c r="AT130">
         <v>300</v>
       </c>
+      <c r="AU130">
+        <v>300</v>
+      </c>
     </row>
-    <row r="131" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131">
         <v>9</v>
       </c>
-      <c r="B131">
+      <c r="C131">
         <v>3</v>
       </c>
-      <c r="C131">
+      <c r="D131">
         <v>312</v>
       </c>
-      <c r="D131">
+      <c r="E131">
         <v>9</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
         <v>46</v>
       </c>
-      <c r="F131">
-        <v>300</v>
-      </c>
       <c r="G131">
         <v>300</v>
       </c>
@@ -18975,26 +19370,29 @@
       <c r="AT131">
         <v>300</v>
       </c>
+      <c r="AU131">
+        <v>300</v>
+      </c>
     </row>
-    <row r="132" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A132">
+        <v>1</v>
+      </c>
+      <c r="B132">
         <v>9</v>
       </c>
-      <c r="B132">
+      <c r="C132">
         <v>3</v>
       </c>
-      <c r="C132">
+      <c r="D132">
         <v>312</v>
       </c>
-      <c r="D132">
+      <c r="E132">
         <v>10</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>46</v>
       </c>
-      <c r="F132">
-        <v>300</v>
-      </c>
       <c r="G132">
         <v>300</v>
       </c>
@@ -19115,26 +19513,29 @@
       <c r="AT132">
         <v>300</v>
       </c>
+      <c r="AU132">
+        <v>300</v>
+      </c>
     </row>
-    <row r="133" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133">
         <v>9</v>
       </c>
-      <c r="B133">
+      <c r="C133">
         <v>3</v>
       </c>
-      <c r="C133">
+      <c r="D133">
         <v>312</v>
       </c>
-      <c r="D133">
+      <c r="E133">
         <v>11</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>46</v>
       </c>
-      <c r="F133">
-        <v>300</v>
-      </c>
       <c r="G133">
         <v>300</v>
       </c>
@@ -19255,26 +19656,29 @@
       <c r="AT133">
         <v>300</v>
       </c>
+      <c r="AU133">
+        <v>300</v>
+      </c>
     </row>
-    <row r="134" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134">
         <v>9</v>
       </c>
-      <c r="B134">
+      <c r="C134">
         <v>3</v>
       </c>
-      <c r="C134">
+      <c r="D134">
         <v>312</v>
       </c>
-      <c r="D134">
+      <c r="E134">
         <v>12</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>46</v>
       </c>
-      <c r="F134">
-        <v>300</v>
-      </c>
       <c r="G134">
         <v>300</v>
       </c>
@@ -19395,26 +19799,29 @@
       <c r="AT134">
         <v>300</v>
       </c>
+      <c r="AU134">
+        <v>300</v>
+      </c>
     </row>
-    <row r="135" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135">
         <v>9</v>
       </c>
-      <c r="B135">
+      <c r="C135">
         <v>3</v>
       </c>
-      <c r="C135">
+      <c r="D135">
         <v>312</v>
       </c>
-      <c r="D135">
+      <c r="E135">
         <v>13</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
         <v>46</v>
       </c>
-      <c r="F135">
-        <v>300</v>
-      </c>
       <c r="G135">
         <v>300</v>
       </c>
@@ -19535,26 +19942,29 @@
       <c r="AT135">
         <v>300</v>
       </c>
+      <c r="AU135">
+        <v>300</v>
+      </c>
     </row>
-    <row r="136" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A136">
+        <v>1</v>
+      </c>
+      <c r="B136">
         <v>9</v>
       </c>
-      <c r="B136">
+      <c r="C136">
         <v>3</v>
       </c>
-      <c r="C136">
+      <c r="D136">
         <v>312</v>
       </c>
-      <c r="D136">
+      <c r="E136">
         <v>14</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
         <v>46</v>
       </c>
-      <c r="F136">
-        <v>300</v>
-      </c>
       <c r="G136">
         <v>300</v>
       </c>
@@ -19675,26 +20085,29 @@
       <c r="AT136">
         <v>300</v>
       </c>
+      <c r="AU136">
+        <v>300</v>
+      </c>
     </row>
-    <row r="137" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137">
         <v>9</v>
       </c>
-      <c r="B137">
+      <c r="C137">
         <v>3</v>
       </c>
-      <c r="C137">
+      <c r="D137">
         <v>312</v>
       </c>
-      <c r="D137">
+      <c r="E137">
         <v>15</v>
       </c>
-      <c r="E137" t="s">
+      <c r="F137" t="s">
         <v>46</v>
       </c>
-      <c r="F137">
-        <v>300</v>
-      </c>
       <c r="G137">
         <v>300</v>
       </c>
@@ -19815,26 +20228,29 @@
       <c r="AT137">
         <v>300</v>
       </c>
+      <c r="AU137">
+        <v>300</v>
+      </c>
     </row>
-    <row r="138" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138">
         <v>9</v>
       </c>
-      <c r="B138">
+      <c r="C138">
         <v>3</v>
       </c>
-      <c r="C138">
+      <c r="D138">
         <v>312</v>
       </c>
-      <c r="D138">
+      <c r="E138">
         <v>16</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
         <v>46</v>
       </c>
-      <c r="F138">
-        <v>300</v>
-      </c>
       <c r="G138">
         <v>300</v>
       </c>
@@ -19955,26 +20371,29 @@
       <c r="AT138">
         <v>300</v>
       </c>
+      <c r="AU138">
+        <v>300</v>
+      </c>
     </row>
-    <row r="139" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="B139">
         <v>9</v>
       </c>
-      <c r="B139">
+      <c r="C139">
         <v>3</v>
       </c>
-      <c r="C139">
+      <c r="D139">
         <v>313</v>
       </c>
-      <c r="D139">
+      <c r="E139">
         <v>6</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
         <v>46</v>
       </c>
-      <c r="F139">
-        <v>300</v>
-      </c>
       <c r="G139">
         <v>300</v>
       </c>
@@ -20095,26 +20514,29 @@
       <c r="AT139">
         <v>300</v>
       </c>
+      <c r="AU139">
+        <v>300</v>
+      </c>
     </row>
-    <row r="140" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="B140">
         <v>9</v>
       </c>
-      <c r="B140">
+      <c r="C140">
         <v>3</v>
       </c>
-      <c r="C140">
+      <c r="D140">
         <v>313</v>
       </c>
-      <c r="D140">
+      <c r="E140">
         <v>7</v>
       </c>
-      <c r="E140" t="s">
+      <c r="F140" t="s">
         <v>46</v>
       </c>
-      <c r="F140">
-        <v>300</v>
-      </c>
       <c r="G140">
         <v>300</v>
       </c>
@@ -20235,26 +20657,29 @@
       <c r="AT140">
         <v>300</v>
       </c>
+      <c r="AU140">
+        <v>300</v>
+      </c>
     </row>
-    <row r="141" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141">
         <v>9</v>
       </c>
-      <c r="B141">
+      <c r="C141">
         <v>3</v>
       </c>
-      <c r="C141">
+      <c r="D141">
         <v>313</v>
       </c>
-      <c r="D141">
+      <c r="E141">
         <v>8</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
         <v>46</v>
       </c>
-      <c r="F141">
-        <v>300</v>
-      </c>
       <c r="G141">
         <v>300</v>
       </c>
@@ -20375,26 +20800,29 @@
       <c r="AT141">
         <v>300</v>
       </c>
+      <c r="AU141">
+        <v>300</v>
+      </c>
     </row>
-    <row r="142" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="B142">
         <v>9</v>
       </c>
-      <c r="B142">
+      <c r="C142">
         <v>3</v>
       </c>
-      <c r="C142">
+      <c r="D142">
         <v>313</v>
       </c>
-      <c r="D142">
+      <c r="E142">
         <v>9</v>
       </c>
-      <c r="E142" t="s">
+      <c r="F142" t="s">
         <v>46</v>
       </c>
-      <c r="F142">
-        <v>300</v>
-      </c>
       <c r="G142">
         <v>300</v>
       </c>
@@ -20515,26 +20943,29 @@
       <c r="AT142">
         <v>300</v>
       </c>
+      <c r="AU142">
+        <v>300</v>
+      </c>
     </row>
-    <row r="143" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143">
         <v>9</v>
       </c>
-      <c r="B143">
+      <c r="C143">
         <v>3</v>
       </c>
-      <c r="C143">
+      <c r="D143">
         <v>313</v>
       </c>
-      <c r="D143">
+      <c r="E143">
         <v>10</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" t="s">
         <v>46</v>
       </c>
-      <c r="F143">
-        <v>300</v>
-      </c>
       <c r="G143">
         <v>300</v>
       </c>
@@ -20655,26 +21086,29 @@
       <c r="AT143">
         <v>300</v>
       </c>
+      <c r="AU143">
+        <v>300</v>
+      </c>
     </row>
-    <row r="144" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="B144">
         <v>9</v>
       </c>
-      <c r="B144">
+      <c r="C144">
         <v>3</v>
       </c>
-      <c r="C144">
+      <c r="D144">
         <v>313</v>
       </c>
-      <c r="D144">
+      <c r="E144">
         <v>11</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
         <v>46</v>
       </c>
-      <c r="F144">
-        <v>300</v>
-      </c>
       <c r="G144">
         <v>300</v>
       </c>
@@ -20795,26 +21229,29 @@
       <c r="AT144">
         <v>300</v>
       </c>
+      <c r="AU144">
+        <v>300</v>
+      </c>
     </row>
-    <row r="145" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A145">
+        <v>1</v>
+      </c>
+      <c r="B145">
         <v>9</v>
       </c>
-      <c r="B145">
+      <c r="C145">
         <v>3</v>
       </c>
-      <c r="C145">
+      <c r="D145">
         <v>313</v>
       </c>
-      <c r="D145">
+      <c r="E145">
         <v>12</v>
       </c>
-      <c r="E145" t="s">
+      <c r="F145" t="s">
         <v>46</v>
       </c>
-      <c r="F145">
-        <v>300</v>
-      </c>
       <c r="G145">
         <v>300</v>
       </c>
@@ -20935,26 +21372,29 @@
       <c r="AT145">
         <v>300</v>
       </c>
+      <c r="AU145">
+        <v>300</v>
+      </c>
     </row>
-    <row r="146" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146">
         <v>9</v>
       </c>
-      <c r="B146">
+      <c r="C146">
         <v>3</v>
       </c>
-      <c r="C146">
+      <c r="D146">
         <v>313</v>
       </c>
-      <c r="D146">
+      <c r="E146">
         <v>13</v>
       </c>
-      <c r="E146" t="s">
+      <c r="F146" t="s">
         <v>46</v>
       </c>
-      <c r="F146">
-        <v>300</v>
-      </c>
       <c r="G146">
         <v>300</v>
       </c>
@@ -21075,26 +21515,29 @@
       <c r="AT146">
         <v>300</v>
       </c>
+      <c r="AU146">
+        <v>300</v>
+      </c>
     </row>
-    <row r="147" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147">
         <v>9</v>
       </c>
-      <c r="B147">
+      <c r="C147">
         <v>3</v>
       </c>
-      <c r="C147">
+      <c r="D147">
         <v>313</v>
       </c>
-      <c r="D147">
+      <c r="E147">
         <v>14</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
         <v>46</v>
       </c>
-      <c r="F147">
-        <v>300</v>
-      </c>
       <c r="G147">
         <v>300</v>
       </c>
@@ -21215,26 +21658,29 @@
       <c r="AT147">
         <v>300</v>
       </c>
+      <c r="AU147">
+        <v>300</v>
+      </c>
     </row>
-    <row r="148" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A148">
+        <v>1</v>
+      </c>
+      <c r="B148">
         <v>9</v>
       </c>
-      <c r="B148">
+      <c r="C148">
         <v>3</v>
       </c>
-      <c r="C148">
+      <c r="D148">
         <v>313</v>
       </c>
-      <c r="D148">
+      <c r="E148">
         <v>15</v>
       </c>
-      <c r="E148" t="s">
+      <c r="F148" t="s">
         <v>46</v>
       </c>
-      <c r="F148">
-        <v>300</v>
-      </c>
       <c r="G148">
         <v>300</v>
       </c>
@@ -21355,26 +21801,29 @@
       <c r="AT148">
         <v>300</v>
       </c>
+      <c r="AU148">
+        <v>300</v>
+      </c>
     </row>
-    <row r="149" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A149">
+        <v>1</v>
+      </c>
+      <c r="B149">
         <v>9</v>
       </c>
-      <c r="B149">
+      <c r="C149">
         <v>3</v>
       </c>
-      <c r="C149">
+      <c r="D149">
         <v>313</v>
       </c>
-      <c r="D149">
+      <c r="E149">
         <v>16</v>
       </c>
-      <c r="E149" t="s">
+      <c r="F149" t="s">
         <v>46</v>
       </c>
-      <c r="F149">
-        <v>300</v>
-      </c>
       <c r="G149">
         <v>300</v>
       </c>
@@ -21495,26 +21944,29 @@
       <c r="AT149">
         <v>300</v>
       </c>
+      <c r="AU149">
+        <v>300</v>
+      </c>
     </row>
-    <row r="150" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150">
         <v>9</v>
       </c>
-      <c r="B150">
+      <c r="C150">
         <v>3</v>
       </c>
-      <c r="C150">
+      <c r="D150">
         <v>314</v>
       </c>
-      <c r="D150">
+      <c r="E150">
         <v>6</v>
       </c>
-      <c r="E150" t="s">
+      <c r="F150" t="s">
         <v>46</v>
       </c>
-      <c r="F150">
-        <v>300</v>
-      </c>
       <c r="G150">
         <v>300</v>
       </c>
@@ -21635,26 +22087,29 @@
       <c r="AT150">
         <v>300</v>
       </c>
+      <c r="AU150">
+        <v>300</v>
+      </c>
     </row>
-    <row r="151" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A151">
+        <v>1</v>
+      </c>
+      <c r="B151">
         <v>9</v>
       </c>
-      <c r="B151">
+      <c r="C151">
         <v>3</v>
       </c>
-      <c r="C151">
+      <c r="D151">
         <v>314</v>
       </c>
-      <c r="D151">
+      <c r="E151">
         <v>7</v>
       </c>
-      <c r="E151" t="s">
+      <c r="F151" t="s">
         <v>46</v>
       </c>
-      <c r="F151">
-        <v>300</v>
-      </c>
       <c r="G151">
         <v>300</v>
       </c>
@@ -21775,26 +22230,29 @@
       <c r="AT151">
         <v>300</v>
       </c>
+      <c r="AU151">
+        <v>300</v>
+      </c>
     </row>
-    <row r="152" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A152">
+        <v>1</v>
+      </c>
+      <c r="B152">
         <v>9</v>
       </c>
-      <c r="B152">
+      <c r="C152">
         <v>3</v>
       </c>
-      <c r="C152">
+      <c r="D152">
         <v>314</v>
       </c>
-      <c r="D152">
+      <c r="E152">
         <v>8</v>
       </c>
-      <c r="E152" t="s">
+      <c r="F152" t="s">
         <v>46</v>
       </c>
-      <c r="F152">
-        <v>300</v>
-      </c>
       <c r="G152">
         <v>300</v>
       </c>
@@ -21915,26 +22373,29 @@
       <c r="AT152">
         <v>300</v>
       </c>
+      <c r="AU152">
+        <v>300</v>
+      </c>
     </row>
-    <row r="153" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A153">
+        <v>1</v>
+      </c>
+      <c r="B153">
         <v>9</v>
       </c>
-      <c r="B153">
+      <c r="C153">
         <v>3</v>
       </c>
-      <c r="C153">
+      <c r="D153">
         <v>314</v>
       </c>
-      <c r="D153">
+      <c r="E153">
         <v>9</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>46</v>
       </c>
-      <c r="F153">
-        <v>300</v>
-      </c>
       <c r="G153">
         <v>300</v>
       </c>
@@ -22055,26 +22516,29 @@
       <c r="AT153">
         <v>300</v>
       </c>
+      <c r="AU153">
+        <v>300</v>
+      </c>
     </row>
-    <row r="154" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A154">
+        <v>1</v>
+      </c>
+      <c r="B154">
         <v>9</v>
       </c>
-      <c r="B154">
+      <c r="C154">
         <v>3</v>
       </c>
-      <c r="C154">
+      <c r="D154">
         <v>314</v>
       </c>
-      <c r="D154">
+      <c r="E154">
         <v>10</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
         <v>46</v>
       </c>
-      <c r="F154">
-        <v>300</v>
-      </c>
       <c r="G154">
         <v>300</v>
       </c>
@@ -22195,26 +22659,29 @@
       <c r="AT154">
         <v>300</v>
       </c>
+      <c r="AU154">
+        <v>300</v>
+      </c>
     </row>
-    <row r="155" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="B155">
         <v>9</v>
       </c>
-      <c r="B155">
+      <c r="C155">
         <v>3</v>
       </c>
-      <c r="C155">
+      <c r="D155">
         <v>314</v>
       </c>
-      <c r="D155">
+      <c r="E155">
         <v>11</v>
       </c>
-      <c r="E155" t="s">
+      <c r="F155" t="s">
         <v>46</v>
       </c>
-      <c r="F155">
-        <v>300</v>
-      </c>
       <c r="G155">
         <v>300</v>
       </c>
@@ -22335,26 +22802,29 @@
       <c r="AT155">
         <v>300</v>
       </c>
+      <c r="AU155">
+        <v>300</v>
+      </c>
     </row>
-    <row r="156" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A156">
+        <v>1</v>
+      </c>
+      <c r="B156">
         <v>9</v>
       </c>
-      <c r="B156">
+      <c r="C156">
         <v>3</v>
       </c>
-      <c r="C156">
+      <c r="D156">
         <v>314</v>
       </c>
-      <c r="D156">
+      <c r="E156">
         <v>12</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F156" t="s">
         <v>46</v>
       </c>
-      <c r="F156">
-        <v>300</v>
-      </c>
       <c r="G156">
         <v>300</v>
       </c>
@@ -22475,26 +22945,29 @@
       <c r="AT156">
         <v>300</v>
       </c>
+      <c r="AU156">
+        <v>300</v>
+      </c>
     </row>
-    <row r="157" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A157">
+        <v>1</v>
+      </c>
+      <c r="B157">
         <v>9</v>
       </c>
-      <c r="B157">
+      <c r="C157">
         <v>3</v>
       </c>
-      <c r="C157">
+      <c r="D157">
         <v>314</v>
       </c>
-      <c r="D157">
+      <c r="E157">
         <v>13</v>
       </c>
-      <c r="E157" t="s">
+      <c r="F157" t="s">
         <v>46</v>
       </c>
-      <c r="F157">
-        <v>300</v>
-      </c>
       <c r="G157">
         <v>300</v>
       </c>
@@ -22615,26 +23088,29 @@
       <c r="AT157">
         <v>300</v>
       </c>
+      <c r="AU157">
+        <v>300</v>
+      </c>
     </row>
-    <row r="158" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A158">
+        <v>1</v>
+      </c>
+      <c r="B158">
         <v>9</v>
       </c>
-      <c r="B158">
+      <c r="C158">
         <v>3</v>
       </c>
-      <c r="C158">
+      <c r="D158">
         <v>314</v>
       </c>
-      <c r="D158">
+      <c r="E158">
         <v>14</v>
       </c>
-      <c r="E158" t="s">
+      <c r="F158" t="s">
         <v>46</v>
       </c>
-      <c r="F158">
-        <v>300</v>
-      </c>
       <c r="G158">
         <v>300</v>
       </c>
@@ -22755,26 +23231,29 @@
       <c r="AT158">
         <v>300</v>
       </c>
+      <c r="AU158">
+        <v>300</v>
+      </c>
     </row>
-    <row r="159" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159">
         <v>9</v>
       </c>
-      <c r="B159">
+      <c r="C159">
         <v>3</v>
       </c>
-      <c r="C159">
+      <c r="D159">
         <v>314</v>
       </c>
-      <c r="D159">
+      <c r="E159">
         <v>15</v>
       </c>
-      <c r="E159" t="s">
+      <c r="F159" t="s">
         <v>46</v>
       </c>
-      <c r="F159">
-        <v>300</v>
-      </c>
       <c r="G159">
         <v>300</v>
       </c>
@@ -22895,26 +23374,29 @@
       <c r="AT159">
         <v>300</v>
       </c>
+      <c r="AU159">
+        <v>300</v>
+      </c>
     </row>
-    <row r="160" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A160">
+        <v>1</v>
+      </c>
+      <c r="B160">
         <v>9</v>
       </c>
-      <c r="B160">
+      <c r="C160">
         <v>3</v>
       </c>
-      <c r="C160">
+      <c r="D160">
         <v>314</v>
       </c>
-      <c r="D160">
+      <c r="E160">
         <v>16</v>
       </c>
-      <c r="E160" t="s">
+      <c r="F160" t="s">
         <v>46</v>
       </c>
-      <c r="F160">
-        <v>300</v>
-      </c>
       <c r="G160">
         <v>300</v>
       </c>
@@ -23035,26 +23517,29 @@
       <c r="AT160">
         <v>300</v>
       </c>
+      <c r="AU160">
+        <v>300</v>
+      </c>
     </row>
-    <row r="161" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A161">
+        <v>1</v>
+      </c>
+      <c r="B161">
         <v>9</v>
       </c>
-      <c r="B161">
+      <c r="C161">
         <v>3</v>
       </c>
-      <c r="C161">
+      <c r="D161">
         <v>315</v>
       </c>
-      <c r="D161">
+      <c r="E161">
         <v>6</v>
       </c>
-      <c r="E161" t="s">
+      <c r="F161" t="s">
         <v>46</v>
       </c>
-      <c r="F161">
-        <v>300</v>
-      </c>
       <c r="G161">
         <v>300</v>
       </c>
@@ -23175,26 +23660,29 @@
       <c r="AT161">
         <v>300</v>
       </c>
+      <c r="AU161">
+        <v>300</v>
+      </c>
     </row>
-    <row r="162" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="B162">
         <v>9</v>
       </c>
-      <c r="B162">
+      <c r="C162">
         <v>3</v>
       </c>
-      <c r="C162">
+      <c r="D162">
         <v>315</v>
       </c>
-      <c r="D162">
+      <c r="E162">
         <v>7</v>
       </c>
-      <c r="E162" t="s">
+      <c r="F162" t="s">
         <v>46</v>
       </c>
-      <c r="F162">
-        <v>300</v>
-      </c>
       <c r="G162">
         <v>300</v>
       </c>
@@ -23315,26 +23803,29 @@
       <c r="AT162">
         <v>300</v>
       </c>
+      <c r="AU162">
+        <v>300</v>
+      </c>
     </row>
-    <row r="163" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A163">
+        <v>1</v>
+      </c>
+      <c r="B163">
         <v>9</v>
       </c>
-      <c r="B163">
+      <c r="C163">
         <v>3</v>
       </c>
-      <c r="C163">
+      <c r="D163">
         <v>315</v>
       </c>
-      <c r="D163">
+      <c r="E163">
         <v>8</v>
       </c>
-      <c r="E163" t="s">
+      <c r="F163" t="s">
         <v>46</v>
       </c>
-      <c r="F163">
-        <v>300</v>
-      </c>
       <c r="G163">
         <v>300</v>
       </c>
@@ -23455,26 +23946,29 @@
       <c r="AT163">
         <v>300</v>
       </c>
+      <c r="AU163">
+        <v>300</v>
+      </c>
     </row>
-    <row r="164" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="B164">
         <v>9</v>
       </c>
-      <c r="B164">
+      <c r="C164">
         <v>3</v>
       </c>
-      <c r="C164">
+      <c r="D164">
         <v>315</v>
       </c>
-      <c r="D164">
+      <c r="E164">
         <v>9</v>
       </c>
-      <c r="E164" t="s">
+      <c r="F164" t="s">
         <v>46</v>
       </c>
-      <c r="F164">
-        <v>300</v>
-      </c>
       <c r="G164">
         <v>300</v>
       </c>
@@ -23595,26 +24089,29 @@
       <c r="AT164">
         <v>300</v>
       </c>
+      <c r="AU164">
+        <v>300</v>
+      </c>
     </row>
-    <row r="165" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="B165">
         <v>9</v>
       </c>
-      <c r="B165">
+      <c r="C165">
         <v>3</v>
       </c>
-      <c r="C165">
+      <c r="D165">
         <v>315</v>
       </c>
-      <c r="D165">
+      <c r="E165">
         <v>10</v>
       </c>
-      <c r="E165" t="s">
+      <c r="F165" t="s">
         <v>46</v>
       </c>
-      <c r="F165">
-        <v>300</v>
-      </c>
       <c r="G165">
         <v>300</v>
       </c>
@@ -23735,26 +24232,29 @@
       <c r="AT165">
         <v>300</v>
       </c>
+      <c r="AU165">
+        <v>300</v>
+      </c>
     </row>
-    <row r="166" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="B166">
         <v>9</v>
       </c>
-      <c r="B166">
+      <c r="C166">
         <v>3</v>
       </c>
-      <c r="C166">
+      <c r="D166">
         <v>315</v>
       </c>
-      <c r="D166">
+      <c r="E166">
         <v>11</v>
       </c>
-      <c r="E166" t="s">
+      <c r="F166" t="s">
         <v>46</v>
       </c>
-      <c r="F166">
-        <v>300</v>
-      </c>
       <c r="G166">
         <v>300</v>
       </c>
@@ -23875,26 +24375,29 @@
       <c r="AT166">
         <v>300</v>
       </c>
+      <c r="AU166">
+        <v>300</v>
+      </c>
     </row>
-    <row r="167" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A167">
+        <v>1</v>
+      </c>
+      <c r="B167">
         <v>9</v>
       </c>
-      <c r="B167">
+      <c r="C167">
         <v>3</v>
       </c>
-      <c r="C167">
+      <c r="D167">
         <v>315</v>
       </c>
-      <c r="D167">
+      <c r="E167">
         <v>12</v>
       </c>
-      <c r="E167" t="s">
+      <c r="F167" t="s">
         <v>46</v>
       </c>
-      <c r="F167">
-        <v>300</v>
-      </c>
       <c r="G167">
         <v>300</v>
       </c>
@@ -24015,26 +24518,29 @@
       <c r="AT167">
         <v>300</v>
       </c>
+      <c r="AU167">
+        <v>300</v>
+      </c>
     </row>
-    <row r="168" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A168">
+        <v>1</v>
+      </c>
+      <c r="B168">
         <v>9</v>
       </c>
-      <c r="B168">
+      <c r="C168">
         <v>3</v>
       </c>
-      <c r="C168">
+      <c r="D168">
         <v>315</v>
       </c>
-      <c r="D168">
+      <c r="E168">
         <v>13</v>
       </c>
-      <c r="E168" t="s">
+      <c r="F168" t="s">
         <v>46</v>
       </c>
-      <c r="F168">
-        <v>300</v>
-      </c>
       <c r="G168">
         <v>300</v>
       </c>
@@ -24155,26 +24661,29 @@
       <c r="AT168">
         <v>300</v>
       </c>
+      <c r="AU168">
+        <v>300</v>
+      </c>
     </row>
-    <row r="169" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169">
         <v>9</v>
       </c>
-      <c r="B169">
+      <c r="C169">
         <v>3</v>
       </c>
-      <c r="C169">
+      <c r="D169">
         <v>315</v>
       </c>
-      <c r="D169">
+      <c r="E169">
         <v>14</v>
       </c>
-      <c r="E169" t="s">
+      <c r="F169" t="s">
         <v>46</v>
       </c>
-      <c r="F169">
-        <v>300</v>
-      </c>
       <c r="G169">
         <v>300</v>
       </c>
@@ -24295,26 +24804,29 @@
       <c r="AT169">
         <v>300</v>
       </c>
+      <c r="AU169">
+        <v>300</v>
+      </c>
     </row>
-    <row r="170" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="B170">
         <v>9</v>
       </c>
-      <c r="B170">
+      <c r="C170">
         <v>3</v>
       </c>
-      <c r="C170">
+      <c r="D170">
         <v>315</v>
       </c>
-      <c r="D170">
+      <c r="E170">
         <v>15</v>
       </c>
-      <c r="E170" t="s">
+      <c r="F170" t="s">
         <v>46</v>
       </c>
-      <c r="F170">
-        <v>300</v>
-      </c>
       <c r="G170">
         <v>300</v>
       </c>
@@ -24435,26 +24947,29 @@
       <c r="AT170">
         <v>300</v>
       </c>
+      <c r="AU170">
+        <v>300</v>
+      </c>
     </row>
-    <row r="171" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="B171">
         <v>9</v>
       </c>
-      <c r="B171">
+      <c r="C171">
         <v>3</v>
       </c>
-      <c r="C171">
+      <c r="D171">
         <v>315</v>
       </c>
-      <c r="D171">
+      <c r="E171">
         <v>16</v>
       </c>
-      <c r="E171" t="s">
+      <c r="F171" t="s">
         <v>46</v>
       </c>
-      <c r="F171">
-        <v>300</v>
-      </c>
       <c r="G171">
         <v>300</v>
       </c>
@@ -24575,26 +25090,29 @@
       <c r="AT171">
         <v>300</v>
       </c>
+      <c r="AU171">
+        <v>300</v>
+      </c>
     </row>
-    <row r="172" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A172">
+        <v>1</v>
+      </c>
+      <c r="B172">
         <v>9</v>
       </c>
-      <c r="B172">
+      <c r="C172">
         <v>3</v>
       </c>
-      <c r="C172">
+      <c r="D172">
         <v>316</v>
       </c>
-      <c r="D172">
+      <c r="E172">
         <v>6</v>
       </c>
-      <c r="E172" t="s">
+      <c r="F172" t="s">
         <v>46</v>
       </c>
-      <c r="F172">
-        <v>300</v>
-      </c>
       <c r="G172">
         <v>300</v>
       </c>
@@ -24715,26 +25233,29 @@
       <c r="AT172">
         <v>300</v>
       </c>
+      <c r="AU172">
+        <v>300</v>
+      </c>
     </row>
-    <row r="173" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="B173">
         <v>9</v>
       </c>
-      <c r="B173">
+      <c r="C173">
         <v>3</v>
       </c>
-      <c r="C173">
+      <c r="D173">
         <v>316</v>
       </c>
-      <c r="D173">
+      <c r="E173">
         <v>7</v>
       </c>
-      <c r="E173" t="s">
+      <c r="F173" t="s">
         <v>46</v>
       </c>
-      <c r="F173">
-        <v>300</v>
-      </c>
       <c r="G173">
         <v>300</v>
       </c>
@@ -24855,26 +25376,29 @@
       <c r="AT173">
         <v>300</v>
       </c>
+      <c r="AU173">
+        <v>300</v>
+      </c>
     </row>
-    <row r="174" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="B174">
         <v>9</v>
       </c>
-      <c r="B174">
+      <c r="C174">
         <v>3</v>
       </c>
-      <c r="C174">
+      <c r="D174">
         <v>316</v>
       </c>
-      <c r="D174">
+      <c r="E174">
         <v>8</v>
       </c>
-      <c r="E174" t="s">
+      <c r="F174" t="s">
         <v>46</v>
       </c>
-      <c r="F174">
-        <v>300</v>
-      </c>
       <c r="G174">
         <v>300</v>
       </c>
@@ -24995,26 +25519,29 @@
       <c r="AT174">
         <v>300</v>
       </c>
+      <c r="AU174">
+        <v>300</v>
+      </c>
     </row>
-    <row r="175" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A175">
+        <v>1</v>
+      </c>
+      <c r="B175">
         <v>9</v>
       </c>
-      <c r="B175">
+      <c r="C175">
         <v>3</v>
       </c>
-      <c r="C175">
+      <c r="D175">
         <v>316</v>
       </c>
-      <c r="D175">
+      <c r="E175">
         <v>9</v>
       </c>
-      <c r="E175" t="s">
+      <c r="F175" t="s">
         <v>46</v>
       </c>
-      <c r="F175">
-        <v>300</v>
-      </c>
       <c r="G175">
         <v>300</v>
       </c>
@@ -25135,26 +25662,29 @@
       <c r="AT175">
         <v>300</v>
       </c>
+      <c r="AU175">
+        <v>300</v>
+      </c>
     </row>
-    <row r="176" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A176">
+        <v>1</v>
+      </c>
+      <c r="B176">
         <v>9</v>
       </c>
-      <c r="B176">
+      <c r="C176">
         <v>3</v>
       </c>
-      <c r="C176">
+      <c r="D176">
         <v>316</v>
       </c>
-      <c r="D176">
+      <c r="E176">
         <v>10</v>
       </c>
-      <c r="E176" t="s">
+      <c r="F176" t="s">
         <v>46</v>
       </c>
-      <c r="F176">
-        <v>300</v>
-      </c>
       <c r="G176">
         <v>300</v>
       </c>
@@ -25275,26 +25805,29 @@
       <c r="AT176">
         <v>300</v>
       </c>
+      <c r="AU176">
+        <v>300</v>
+      </c>
     </row>
-    <row r="177" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A177">
+        <v>1</v>
+      </c>
+      <c r="B177">
         <v>9</v>
       </c>
-      <c r="B177">
+      <c r="C177">
         <v>3</v>
       </c>
-      <c r="C177">
+      <c r="D177">
         <v>316</v>
       </c>
-      <c r="D177">
+      <c r="E177">
         <v>11</v>
       </c>
-      <c r="E177" t="s">
+      <c r="F177" t="s">
         <v>46</v>
       </c>
-      <c r="F177">
-        <v>300</v>
-      </c>
       <c r="G177">
         <v>300</v>
       </c>
@@ -25415,26 +25948,29 @@
       <c r="AT177">
         <v>300</v>
       </c>
+      <c r="AU177">
+        <v>300</v>
+      </c>
     </row>
-    <row r="178" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A178">
+        <v>1</v>
+      </c>
+      <c r="B178">
         <v>9</v>
       </c>
-      <c r="B178">
+      <c r="C178">
         <v>3</v>
       </c>
-      <c r="C178">
+      <c r="D178">
         <v>316</v>
       </c>
-      <c r="D178">
+      <c r="E178">
         <v>12</v>
       </c>
-      <c r="E178" t="s">
+      <c r="F178" t="s">
         <v>46</v>
       </c>
-      <c r="F178">
-        <v>300</v>
-      </c>
       <c r="G178">
         <v>300</v>
       </c>
@@ -25555,26 +26091,29 @@
       <c r="AT178">
         <v>300</v>
       </c>
+      <c r="AU178">
+        <v>300</v>
+      </c>
     </row>
-    <row r="179" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A179">
+        <v>1</v>
+      </c>
+      <c r="B179">
         <v>9</v>
       </c>
-      <c r="B179">
+      <c r="C179">
         <v>3</v>
       </c>
-      <c r="C179">
+      <c r="D179">
         <v>316</v>
       </c>
-      <c r="D179">
+      <c r="E179">
         <v>13</v>
       </c>
-      <c r="E179" t="s">
+      <c r="F179" t="s">
         <v>46</v>
       </c>
-      <c r="F179">
-        <v>300</v>
-      </c>
       <c r="G179">
         <v>300</v>
       </c>
@@ -25695,26 +26234,29 @@
       <c r="AT179">
         <v>300</v>
       </c>
+      <c r="AU179">
+        <v>300</v>
+      </c>
     </row>
-    <row r="180" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A180">
+        <v>1</v>
+      </c>
+      <c r="B180">
         <v>9</v>
       </c>
-      <c r="B180">
+      <c r="C180">
         <v>3</v>
       </c>
-      <c r="C180">
+      <c r="D180">
         <v>316</v>
       </c>
-      <c r="D180">
+      <c r="E180">
         <v>14</v>
       </c>
-      <c r="E180" t="s">
+      <c r="F180" t="s">
         <v>46</v>
       </c>
-      <c r="F180">
-        <v>300</v>
-      </c>
       <c r="G180">
         <v>300</v>
       </c>
@@ -25835,26 +26377,29 @@
       <c r="AT180">
         <v>300</v>
       </c>
+      <c r="AU180">
+        <v>300</v>
+      </c>
     </row>
-    <row r="181" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A181">
+        <v>1</v>
+      </c>
+      <c r="B181">
         <v>9</v>
       </c>
-      <c r="B181">
+      <c r="C181">
         <v>3</v>
       </c>
-      <c r="C181">
+      <c r="D181">
         <v>316</v>
       </c>
-      <c r="D181">
+      <c r="E181">
         <v>15</v>
       </c>
-      <c r="E181" t="s">
+      <c r="F181" t="s">
         <v>46</v>
       </c>
-      <c r="F181">
-        <v>300</v>
-      </c>
       <c r="G181">
         <v>300</v>
       </c>
@@ -25975,26 +26520,29 @@
       <c r="AT181">
         <v>300</v>
       </c>
+      <c r="AU181">
+        <v>300</v>
+      </c>
     </row>
-    <row r="182" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A182">
+        <v>1</v>
+      </c>
+      <c r="B182">
         <v>9</v>
       </c>
-      <c r="B182">
+      <c r="C182">
         <v>3</v>
       </c>
-      <c r="C182">
+      <c r="D182">
         <v>316</v>
       </c>
-      <c r="D182">
+      <c r="E182">
         <v>16</v>
       </c>
-      <c r="E182" t="s">
+      <c r="F182" t="s">
         <v>46</v>
       </c>
-      <c r="F182">
-        <v>300</v>
-      </c>
       <c r="G182">
         <v>300</v>
       </c>
@@ -26113,6 +26661,9 @@
         <v>300</v>
       </c>
       <c r="AT182">
+        <v>300</v>
+      </c>
+      <c r="AU182">
         <v>300</v>
       </c>
     </row>
